--- a/reports/usersSales.xlsx
+++ b/reports/usersSales.xlsx
@@ -412,7 +412,7 @@
   <cols>
     <col min="1" max="1" width="6.856" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="16.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10.426" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -434,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2">
-        <v>905.23</v>
+        <v>288.0</v>
       </c>
     </row>
   </sheetData>

--- a/reports/usersSales.xlsx
+++ b/reports/usersSales.xlsx
@@ -412,7 +412,7 @@
   <cols>
     <col min="1" max="1" width="6.856" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="16.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11.569" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -434,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2">
-        <v>288.0</v>
+        <v>1559.84</v>
       </c>
     </row>
   </sheetData>

--- a/reports/usersSales.xlsx
+++ b/reports/usersSales.xlsx
@@ -412,7 +412,7 @@
   <cols>
     <col min="1" max="1" width="6.856" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="16.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="24.565" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -434,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2">
-        <v>1559.84</v>
+        <v>3.8146936276462E-8</v>
       </c>
     </row>
   </sheetData>
